--- a/01_Initial_Glider_Design/results/nausicaa_results.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.153149587064384</v>
+        <v>5.15314950125791</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.00000000236661</v>
+        <v>10.0000000023666</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.99999959370463</v>
+        <v>64.99999959370513</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.262260661268573</v>
+        <v>1.262260619232062</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.36620154716941</v>
+        <v>2.366201547169455</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0811950322550842</v>
+        <v>0.08119500858660114</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.789210090588769</v>
+        <v>8.789208473547559</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.387313579584675</v>
+        <v>1.38731381172129</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.386476893843071</v>
+        <v>1.386477125956847</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0008366857416042262</v>
+        <v>-0.000836685764442846</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04000007392751177</v>
+        <v>0.04000007495289409</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4000000353818571</v>
+        <v>0.4000000353914301</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01999999266704567</v>
+        <v>0.01999999266748676</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49656.65253802875</v>
+        <v>49656.64906183934</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09342456682821094</v>
+        <v>-0.09342432032415242</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.696832722207728</v>
+        <v>0.6968314948820026</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7948884506379511</v>
+        <v>0.7948882740313044</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.035398503147315</v>
+        <v>2.035398188995389</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1407575007310229</v>
+        <v>0.1407574932211545</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1118865116717531</v>
+        <v>0.1118864808435365</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.696832722207728</v>
+        <v>0.6968314948820026</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1901605316065426</v>
+        <v>0.1901606678026856</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04754013290163565</v>
+        <v>0.0475401669506714</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009040256945220721</v>
+        <v>0.009040269894790839</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.696832722207728</v>
+        <v>0.6968314948820026</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07145088433007531</v>
+        <v>0.07145092947298221</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03572544216503765</v>
+        <v>0.0357254647364911</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0025526144357749</v>
+        <v>0.002552617661276538</v>
       </c>
     </row>
     <row r="33">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.621983713667576e-15</v>
+        <v>2.089214277619248e-16</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.735103943716778e-14</v>
+        <v>-2.055181882769011e-14</v>
       </c>
     </row>
     <row r="38">
@@ -812,393 +812,393 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-3.026542488249412</v>
+        <v>-3.026541759043032</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>objective_total</t>
+          <t>p_roll (rad/s)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01065729830310768</v>
+        <v>1.129190841214659</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>objective_sink</t>
+          <t>p_roll (deg/s)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>64.69786946642702</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>objective_climb</t>
+          <t>t_roll (s)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.000430302038139e-07</v>
+        <v>1.004669862080001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>objective_mass</t>
+          <t>psi_0 (deg)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-14.37798939844673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>objective_span</t>
+          <t>objective_total</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01056499866574569</v>
+        <v>0.01065729830633046</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>objective_control</t>
+          <t>objective_sink</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.159959433178941e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>penalty</t>
+          <t>objective_climb</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.55534373972331e-11</v>
+        <v>7.000430684213097e-07</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_cg (m)</t>
+          <t>objective_mass</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02675086760233792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>y_cg (m)</t>
+          <t>objective_span</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.366991125785201e-18</v>
+        <v>0.01056499871306972</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>z_cg (m)</t>
+          <t>objective_control</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.00311316553197908</v>
+        <v>9.159955019231291e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>I_xx (kg m^2)</t>
+          <t>penalty</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001835682493587644</v>
+        <v>1.79408783147668e-13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>I_yy (kg m^2)</t>
+          <t>x_cg (m)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.001454773590881659</v>
+        <v>0.02675087597365176</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>I_zz (kg m^2)</t>
+          <t>y_cg (m)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003286804395816139</v>
+        <v>7.254640258807773e-18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>I_xy (kg m^2)</t>
+          <t>z_cg (m)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.002170370927886e-21</v>
+        <v>0.003113164496971128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>I_xz (kg m^2)</t>
+          <t>I_xx (kg m^2)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-6.229708233294081e-06</v>
+        <v>0.001835681086377205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>I_yz (kg m^2)</t>
+          <t>I_yy (kg m^2)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.34931540360727e-21</v>
+        <v>0.001454767579799796</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mass_wing_kg</t>
+          <t>I_zz (kg m^2)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03232608428599095</v>
+        <v>0.003286796979129735</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mass_htail_surfaces_kg</t>
+          <t>I_xy (kg m^2)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0007772678986920224</v>
+        <v>-7.012946177065933e-21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mass_vtail_surfaces_kg</t>
+          <t>I_xz (kg m^2)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0001649272431053734</v>
+        <v>-6.229706794991583e-06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mass_linkages_kg</t>
+          <t>I_yz (kg m^2)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.001</v>
+        <v>-3.216441650377974e-21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mass_Receiver_kg</t>
+          <t>mass_wing_kg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.005</v>
+        <v>0.03232607365444774</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mass_battery_kg</t>
+          <t>mass_htail_surfaces_kg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.013</v>
+        <v>0.0007772695687699006</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mass_servo_kg</t>
+          <t>mass_vtail_surfaces_kg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0001649275557103168</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mass_boom_kg</t>
+          <t>mass_linkages_kg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00711231560132345</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mass_pod_kg</t>
+          <t>mass_Receiver_kg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mass_ballast_kg</t>
+          <t>mass_battery_kg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-9.60773753408204e-09</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mass_glue_weight_kg</t>
+          <t>mass_servo_kg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.006014446833709941</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>wing root LE x (m)</t>
+          <t>mass_boom_kg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.03518937518275572</v>
+        <v>0.007112302336855394</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>wing root LE y (m)</t>
+          <t>mass_pod_kg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wing root LE z (m)</t>
+          <t>mass_ballast_kg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>-9.609671186080976e-09</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>wing tip LE x (m)</t>
+          <t>mass_glue_weight_kg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.03518937518275572</v>
+        <v>0.006014445080488974</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>wing tip LE y (m)</t>
+          <t>wing root LE x (m)</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3971934676874264</v>
+        <v>-0.03518937330528862</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wing tip LE z (m)</t>
+          <t>wing root LE y (m)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01411600034846825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>htail root LE x (m)</t>
+          <t>wing root LE z (m)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.6492925893060923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>htail root LE y (m)</t>
+          <t>wing tip LE x (m)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>-0.03518937330528862</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>htail root LE z (m)</t>
+          <t>wing tip LE y (m)</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.3971933795172136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>htail tip LE x (m)</t>
+          <t>wing tip LE z (m)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.6492925893060923</v>
+        <v>0.01411599503439941</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>htail tip LE y (m)</t>
+          <t>htail root LE x (m)</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.09508026580327129</v>
+        <v>0.6492913279313312</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>htail tip LE z (m)</t>
+          <t>htail root LE y (m)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,941 +1208,981 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vtail root LE x (m)</t>
+          <t>htail root LE z (m)</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6611072800426903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>vtail root LE y (m)</t>
+          <t>htail tip LE x (m)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.6492913279313312</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vtail root LE z (m)</t>
+          <t>htail tip LE y (m)</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.09508033390134281</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>vtail tip LE x (m)</t>
+          <t>htail tip LE z (m)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.6611072800426903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>vtail tip LE y (m)</t>
+          <t>vtail root LE x (m)</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.6611060301455115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vtail tip LE z (m)</t>
+          <t>vtail root LE y (m)</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07145088433007531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>aero_F_g[0]</t>
+          <t>vtail root LE z (m)</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.1161011988132716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>aero_F_g[1]</t>
+          <t>vtail tip LE x (m)</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3.847629485179784e-17</v>
+        <v>0.6611060301455115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>aero_F_g[2]</t>
+          <t>vtail tip LE y (m)</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.89333787841236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>aero_M_g[0]</t>
+          <t>vtail tip LE z (m)</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1.311885011390024e-18</v>
+        <v>0.07145092947298221</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>aero_M_g[1]</t>
+          <t>aero_F_g[0]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.730521798249841e-10</v>
+        <v>-0.1161011261167751</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>aero_M_g[2]</t>
+          <t>aero_F_g[1]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.466429218667608e-17</v>
+        <v>4.424779351762667e-17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>aero_F_b</t>
+          <t>aero_F_g[2]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1161011988132716</v>
+        <v>1.893337333351328</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>aero_F_w</t>
+          <t>aero_M_g[0]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.2144373116466061</v>
+        <v>-1.907679116775153e-18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>aero_M_b</t>
+          <t>aero_M_g[1]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.311885011390024e-18</v>
+        <v>7.43762690325056e-17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>aero_M_w</t>
+          <t>aero_M_g[2]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-2.9909548623963e-18</v>
+        <v>2.741624099008162e-17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>aero_L</t>
+          <t>aero_F_b</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.88473458332219</v>
+        <v>0.1161011261167751</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>aero_Y</t>
+          <t>aero_F_w</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3.847629485179784e-17</v>
+        <v>-0.2144372885898241</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>aero_D</t>
+          <t>aero_M_b</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2144373116466061</v>
+        <v>1.907679116775153e-18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>aero_l_b</t>
+          <t>aero_M_w</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.311885011390024e-18</v>
+        <v>-2.882083103074324e-18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>aero_m_b</t>
+          <t>aero_L</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.730521798249841e-10</v>
+        <v>1.884734033918247</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>aero_n_b</t>
+          <t>aero_Y</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-2.466429218667608e-17</v>
+        <v>4.424779351762667e-17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>aero_CL</t>
+          <t>aero_D</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.0356694673591</v>
+        <v>0.2144372885898241</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>aero_CY</t>
+          <t>aero_l_b</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.114288353794223e-17</v>
+        <v>1.907679116775153e-18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>aero_CD</t>
+          <t>aero_m_b</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1178341917743613</v>
+        <v>7.43762690325056e-17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>aero_Cl</t>
+          <t>aero_n_b</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>9.069024113464289e-19</v>
+        <v>-2.741624099008162e-17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>aero_Cm</t>
+          <t>aero_CL</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.065970225867037e-09</v>
+        <v>1.035669485308945</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>aero_Cn</t>
+          <t>aero_CY</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1.705035568212569e-17</v>
+        <v>2.431435349166336e-17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>wing_components_comp1_L (N)</t>
+          <t>aero_CD</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.82076627889601</v>
+        <v>0.1178342154957352</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>wing_components_comp1_D (N)</t>
+          <t>aero_Cl</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.06728618149527207</v>
+        <v>1.318773897673912e-18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>wing_components_comp1_Y (N)</t>
+          <t>aero_Cm</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>2.903581178724765e-16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>wing_components_comp1_l_b</t>
+          <t>aero_Cn</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0</v>
+        <v>-1.895278019878785e-17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>wing_components_comp1_m_b</t>
+          <t>wing_components_comp1_L (N)</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0402413425085334</v>
+        <v>1.82076560353693</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>wing_components_comp1_n_b</t>
+          <t>wing_components_comp1_D (N)</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0</v>
+        <v>0.06728616654041117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>wing_components_comp1_span_eff (m)</t>
+          <t>wing_components_comp1_Y (N)</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.7943870935841959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>wing_components_comp1_oswald</t>
+          <t>wing_components_comp1_l_b</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.8006279876453991</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>wing_components_comp2_L (N)</t>
+          <t>wing_components_comp1_m_b</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.06228084168136074</v>
+        <v>0.04024134289077547</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>wing_components_comp2_D (N)</t>
+          <t>wing_components_comp1_n_b</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.007013510299280108</v>
+        <v>8.673617379884035e-19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>wing_components_comp2_Y (N)</t>
+          <t>wing_components_comp1_span_eff (m)</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.7943869172436374</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>wing_components_comp2_l_b</t>
+          <t>wing_components_comp1_oswald</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5.421010862427522e-20</v>
+        <v>0.8006279933964573</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>wing_components_comp2_m_b</t>
+          <t>wing_components_comp2_L (N)</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.03964930110115668</v>
+        <v>0.06228097086874435</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>wing_components_comp2_n_b</t>
+          <t>wing_components_comp2_D (N)</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3.388131789017201e-21</v>
+        <v>0.0070135186718487</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>wing_components_comp2_span_eff (m)</t>
+          <t>wing_components_comp2_Y (N)</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1901605316065426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>wing_components_comp2_oswald</t>
+          <t>wing_components_comp2_l_b</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.8106853777008906</v>
+        <v>4.607859233063394e-19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>wing_components_comp3_L (N)</t>
+          <t>wing_components_comp2_m_b</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-2.710505431213761e-20</v>
+        <v>-0.03964930383101905</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>wing_components_comp3_D (N)</t>
+          <t>wing_components_comp2_n_b</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.001214685578902999</v>
+        <v>3.218725199566341e-20</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>wing_components_comp3_Y (N)</t>
+          <t>wing_components_comp2_span_eff (m)</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3.847629485179784e-17</v>
+        <v>0.1901606678026856</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>wing_components_comp3_l_b</t>
+          <t>wing_components_comp2_oswald</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.255088091123217e-18</v>
+        <v>0.8106853777008906</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>wing_components_comp3_m_b</t>
+          <t>wing_components_comp3_L (N)</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-9.620038079883495e-05</v>
+        <v>8.131516293641283e-20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>wing_components_comp3_n_b</t>
+          <t>wing_components_comp3_D (N)</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.466629380484286e-17</v>
+        <v>0.001214686697835623</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>wing_components_comp3_span_eff (m)</t>
+          <t>wing_components_comp3_Y (N)</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.07145088433007531</v>
+        <v>4.424779351762667e-17</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>wing_components_comp3_oswald</t>
+          <t>wing_components_comp3_l_b</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.8232692748986458</v>
+        <v>1.433164975032449e-18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_L (N)</t>
+          <t>wing_components_comp3_m_b</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.001687462744819375</v>
+        <v>-9.620017666279131e-05</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_D (N)</t>
+          <t>wing_components_comp3_n_b</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.001327473498832547</v>
+        <v>-2.83084317442758e-17</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_Y (N)</t>
+          <t>wing_components_comp3_span_eff (m)</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>0.07145092947298221</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_l_b</t>
+          <t>wing_components_comp3_oswald</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.586811642531295e-21</v>
+        <v>0.8232692748986458</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_m_b</t>
+          <t>fuselage_components_comp1_L (N)</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.0004958407535257094</v>
+        <v>0.001687459512573406</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_n_b</t>
+          <t>fuselage_components_comp1_D (N)</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1.386513622231565e-21</v>
+        <v>0.00132747144246971</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_span_eff (m)</t>
+          <t>fuselage_components_comp1_Y (N)</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.004055451774444796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>fuselage_components_comp1_oswald</t>
+          <t>fuselage_components_comp1_l_b</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.95</v>
+        <v>1.372821843636459e-20</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>aero_D_profile</t>
+          <t>fuselage_components_comp1_m_b</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.07684185087228773</v>
+        <v>-0.0004958388830935519</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>aero_D_induced</t>
+          <t>fuselage_components_comp1_n_b</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1375954607743183</v>
+        <v>-7.358235789878711e-21</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>aero_CLa</t>
+          <t>fuselage_components_comp1_span_eff (m)</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.064859259811374</v>
+        <v>0.004055451774444796</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>aero_CDa</t>
+          <t>fuselage_components_comp1_oswald</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.6767862506314274</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>aero_CYa</t>
+          <t>aero_D_profile</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.778943697127297e-13</v>
+        <v>0.07684184335256521</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>aero_Cla</t>
+          <t>aero_D_induced</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4.672255556381167e-12</v>
+        <v>0.137595445237259</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>aero_Cma</t>
+          <t>aero_CLa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.1625946708973857</v>
+        <v>4.064860340500243</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>aero_Cna</t>
+          <t>aero_CDa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1.133709065351193e-12</v>
+        <v>0.6767865219637521</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>aero_x_np</t>
+          <t>aero_CYa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.03238117803743063</v>
+        <v>-9.111397247937444e-22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>aero_CLb</t>
+          <t>aero_Cla</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-5.506163542330915e-06</v>
+        <v>4.294411288492044e-15</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>aero_CDb</t>
+          <t>aero_Cma</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-6.06345715306227e-07</v>
+        <v>-0.1625947182930564</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>aero_CYb</t>
+          <t>aero_Cna</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1356589143117148</v>
+        <v>1.341941148725146e-16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>aero_Clb</t>
+          <t>aero_x_np</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.02500007760572317</v>
+        <v>0.03238118625267943</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>aero_Cmb</t>
+          <t>aero_CLb</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>7.542020001801948e-07</v>
+        <v>-5.506278042299447e-06</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>aero_Cnb</t>
+          <t>aero_CDb</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.02026732680355855</v>
+        <v>-6.063751354370306e-07</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>aero_x_np_lateral</t>
+          <t>aero_CYb</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.09200479311624762</v>
+        <v>0.1356588761107938</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>aero_CLp</t>
+          <t>aero_Clb</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.007946218976373485</v>
+        <v>-0.02500007761348012</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>aero_CDp</t>
+          <t>aero_Cmb</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.001728879209142442</v>
+        <v>7.541831634295015e-07</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>aero_CYp</t>
+          <t>aero_Cnb</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.07824093178048834</v>
+        <v>0.020267310265257</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>aero_Clp</t>
+          <t>aero_x_np_lateral</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.6483471936163293</v>
+        <v>-0.09200469489551635</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>aero_Cmp</t>
+          <t>aero_CLp</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.0003117836891300668</v>
+        <v>-0.007946216506571346</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>aero_Cnp</t>
+          <t>aero_CDp</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.2730784457068493</v>
+        <v>-0.001728879776619063</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>aero_CLq</t>
+          <t>aero_CYp</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.3851217171442211</v>
+        <v>-0.07824093524226554</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>aero_CDq</t>
+          <t>aero_Clp</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5315076374927813</v>
+        <v>-0.6483472779705023</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>aero_CYq</t>
+          <t>aero_Cmp</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-4.001922917485146e-15</v>
+        <v>-0.0003117826050916667</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>aero_Clq</t>
+          <t>aero_Cnp</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-4.796664531084883e-14</v>
+        <v>-0.2730784561490696</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>aero_Cmq</t>
+          <t>aero_CLq</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-10.53214533779856</v>
+        <v>0.3851219621295864</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>aero_Cnq</t>
+          <t>aero_CDq</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-9.633464440542662e-15</v>
+        <v>0.5315074244337802</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>aero_CLr</t>
+          <t>aero_CYq</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.000138354317336109</v>
+        <v>5.673802473961533e-17</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>aero_CDr</t>
+          <t>aero_Clq</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-3.183322809519051e-05</v>
+        <v>4.910880792124132e-15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>aero_CYr</t>
+          <t>aero_Cmq</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.08964988694207224</v>
+        <v>-10.5321304560436</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>aero_Clr</t>
+          <t>aero_Cnq</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.2217406785380238</v>
+        <v>-3.636043161460577e-17</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>aero_Cmr</t>
+          <t>aero_CLr</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-9.254742128052122e-05</v>
+        <v>-0.0001383543133393061</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>aero_CDr</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-3.183309975340887e-05</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>aero_CYr</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.08964985658511813</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>aero_Clr</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.22174064668748</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>aero_Cmr</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-9.254728702718008e-05</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t>aero_Cnr</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>-0.04708441779698663</v>
+      <c r="B175" t="n">
+        <v>-0.04708432312542851</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/results/nausicaa_results.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.15314950125791</v>
+        <v>5.153149525267364</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.262260619232062</v>
+        <v>1.262260630994263</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08119500858660114</v>
+        <v>0.08119501541474206</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.789208473547559</v>
+        <v>8.789208926400274</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.38731381172129</v>
+        <v>1.387313746705807</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.386477125956847</v>
+        <v>1.386477061009285</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.000836685764442846</v>
+        <v>-0.0008366856965216218</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04000007495289409</v>
+        <v>0.04000007475393155</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4000000353914301</v>
+        <v>0.4000000353888141</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01999999266748676</v>
+        <v>0.0199999926655473</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49656.64906183934</v>
+        <v>49656.65013336878</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09342432032415242</v>
+        <v>-0.09342439026005291</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6968314948820026</v>
+        <v>0.6968318429726539</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7948882740313044</v>
+        <v>0.7948883238098</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.035398188995389</v>
+        <v>2.03539828202274</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1407574932211545</v>
+        <v>0.1407574956027135</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1118864808435365</v>
+        <v>0.1118864897433062</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6968314948820026</v>
+        <v>0.6968318429726539</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1901606678026856</v>
+        <v>0.1901606294779517</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0475401669506714</v>
+        <v>0.04754015736948792</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009040269894790839</v>
+        <v>0.009040266250862706</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6968314948820026</v>
+        <v>0.6968318429726539</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07145092947298221</v>
+        <v>0.07145091670240844</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0357254647364911</v>
+        <v>0.03572545835120422</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002552617661276538</v>
+        <v>0.002552616748807255</v>
       </c>
     </row>
     <row r="33">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.089214277619248e-16</v>
+        <v>-8.350203523124514e-15</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.055181882769011e-14</v>
+        <v>-9.848384207410734e-15</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-3.026541759043032</v>
+        <v>-3.026541962318201</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.129190841214659</v>
+        <v>1.058550505592157</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.69786946642702</v>
+        <v>60.65047637187003</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.004669862080001</v>
+        <v>1.071714576406072</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-14.37798939844673</v>
+        <v>-31.62631796216882</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01065729830633046</v>
+        <v>0.01065729830535309</v>
       </c>
     </row>
     <row r="44">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.000430684213097e-07</v>
+        <v>7.000429547638715e-07</v>
       </c>
     </row>
     <row r="46">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01056499871306972</v>
+        <v>0.0105649986999016</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.159955019231291e-05</v>
+        <v>9.159956249672909e-05</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.79408783147668e-13</v>
+        <v>8.971452785922185e-12</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02675087597365176</v>
+        <v>0.0267508736520472</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.254640258807773e-18</v>
+        <v>-1.488107865180076e-18</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003113164496971128</v>
+        <v>0.003113164800574826</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.001835681086377205</v>
+        <v>0.00183568148991003</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001454767579799796</v>
+        <v>0.001454769286758737</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003286796979129735</v>
+        <v>0.0032867990891481</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-7.012946177065933e-21</v>
+        <v>3.353689553173407e-21</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-6.229706794991583e-06</v>
+        <v>-6.2297072224905e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-3.216441650377974e-21</v>
+        <v>2.2815618898642e-21</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03232607365444774</v>
+        <v>0.03232607677269975</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0007772695687699006</v>
+        <v>0.000777269098820298</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0001649275557103168</v>
+        <v>0.0001649274672767937</v>
       </c>
     </row>
     <row r="62">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.007112302336855394</v>
+        <v>0.007112306099094361</v>
       </c>
     </row>
     <row r="67">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-9.609671186080976e-09</v>
+        <v>-9.609426332622078e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.006014445080488974</v>
+        <v>0.006014445586277189</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.03518937330528862</v>
+        <v>-0.03518937390067838</v>
       </c>
     </row>
     <row r="71">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.03518937330528862</v>
+        <v>-0.03518937390067838</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3971933795172136</v>
+        <v>0.397193404367839</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01411599503439941</v>
+        <v>0.01411599656328559</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.6492913279313312</v>
+        <v>0.649291685603166</v>
       </c>
     </row>
     <row r="77">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6492913279313312</v>
+        <v>0.649291685603166</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.09508033390134281</v>
+        <v>0.09508031473897584</v>
       </c>
     </row>
     <row r="81">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.6611060301455115</v>
+        <v>0.6611063846214497</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6611060301455115</v>
+        <v>0.6611063846214497</v>
       </c>
     </row>
     <row r="86">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07145092947298221</v>
+        <v>0.07145091670240844</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1161011261167751</v>
+        <v>-0.1161011467611064</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.424779351762667e-17</v>
+        <v>6.415188180862725e-17</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.893337333351328</v>
+        <v>1.893337490654271</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1.907679116775153e-18</v>
+        <v>-3.821464854012173e-16</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7.43762690325056e-17</v>
+        <v>4.904675092714389e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.741624099008162e-17</v>
+        <v>-6.002786140652568e-17</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1161011261167751</v>
+        <v>0.1161011467611064</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.2144372885898241</v>
+        <v>-0.2144372955744961</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.907679116775153e-18</v>
+        <v>3.821464854012173e-16</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-2.882083103074324e-18</v>
+        <v>3.867645503516725e-16</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.884734033918247</v>
+        <v>1.884734192416254</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.424779351762667e-17</v>
+        <v>6.415188180862725e-17</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2144372885898241</v>
+        <v>0.2144372955744961</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.907679116775153e-18</v>
+        <v>3.821464854012173e-16</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>7.43762690325056e-17</v>
+        <v>4.904675092714389e-11</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-2.741624099008162e-17</v>
+        <v>6.002786140652568e-17</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.035669485308945</v>
+        <v>1.035669480373438</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.431435349166336e-17</v>
+        <v>3.525173277221761e-17</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1178342154957352</v>
+        <v>0.1178342088629518</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.318773897673912e-18</v>
+        <v>2.641768886918701e-16</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.903581178724765e-16</v>
+        <v>1.914739871437279e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1.895278019878785e-17</v>
+        <v>4.149710717489231e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.82076560353693</v>
+        <v>1.820765797462427</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.06728616654041117</v>
+        <v>0.06728617070302481</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>4.683753385137379e-17</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0</v>
+        <v>3.816391647148976e-16</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.04024134289077547</v>
+        <v>0.04024134293396982</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>8.673617379884035e-19</v>
+        <v>7.112366251504909e-17</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.7943869172436374</v>
+        <v>0.7943869669449269</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.8006279933964573</v>
+        <v>0.8006279918397183</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.06228097086874435</v>
+        <v>0.06228093452468567</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0070135186718487</v>
+        <v>0.007013516317176</v>
       </c>
     </row>
     <row r="120">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4.607859233063394e-19</v>
+        <v>-5.421010862427522e-20</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.03964930383101905</v>
+        <v>-0.0396493032369044</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3.218725199566341e-20</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1901606678026856</v>
+        <v>0.1901606294779517</v>
       </c>
     </row>
     <row r="125">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>8.131516293641283e-20</v>
+        <v>-2.710505431213761e-20</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.001214686697835623</v>
+        <v>0.001214686381204971</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.424779351762667e-17</v>
+        <v>1.731434795725346e-17</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1.433164975032449e-18</v>
+        <v>5.643467968323278e-19</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-9.620017666279131e-05</v>
+        <v>-9.620023459473031e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-2.83084317442758e-17</v>
+        <v>-1.109731046703648e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.07145092947298221</v>
+        <v>0.07145091670240844</v>
       </c>
     </row>
     <row r="133">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.001687459512573406</v>
+        <v>0.001687460429141284</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.00132747144246971</v>
+        <v>0.001327472025569427</v>
       </c>
     </row>
     <row r="136">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.372821843636459e-20</v>
+        <v>-2.816001888311887e-21</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.0004958388830935519</v>
+        <v>-0.0004958394134239406</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-7.358235789878711e-21</v>
+        <v>1.509358513064274e-21</v>
       </c>
     </row>
     <row r="140">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.07684184335256521</v>
+        <v>0.07684184542697522</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.137595445237259</v>
+        <v>0.1375954501475208</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.064860340500243</v>
+        <v>4.064860030510662</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6767865219637521</v>
+        <v>0.6767864455493355</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-9.111397247937444e-22</v>
+        <v>-1.4746458108678e-12</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.294411288492044e-15</v>
+        <v>-1.511397943680217e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.1625947182930564</v>
+        <v>-0.162594705084695</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.341941148725146e-16</v>
+        <v>-2.81709631988402e-12</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.03238118625267943</v>
+        <v>0.03238118399833192</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-5.506278042299447e-06</v>
+        <v>-5.506125375674737e-06</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-6.063751354370306e-07</v>
+        <v>-6.063441250288863e-07</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1356588761107938</v>
+        <v>0.1356588869903509</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.02500007761348012</v>
+        <v>-0.02500007760707386</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>7.541831634295015e-07</v>
+        <v>7.541842719580456e-07</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.020267310265257</v>
+        <v>0.02026731492435541</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.09200469489551635</v>
+        <v>-0.09200472242985269</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.007946216506571346</v>
+        <v>-0.007946217166265869</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.001728879776619063</v>
+        <v>-0.00172887961528978</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.07824093524226554</v>
+        <v>-0.07824093433272834</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.6483472779705023</v>
+        <v>-0.6483472533641985</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.0003117826050916667</v>
+        <v>-0.000311782902418352</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.2730784561490696</v>
+        <v>-0.273078453147326</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.3851219621295864</v>
+        <v>0.3851218934731725</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.5315074244337802</v>
+        <v>0.5315074849041035</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5.673802473961533e-17</v>
+        <v>-1.499129589323552e-14</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4.910880792124132e-15</v>
+        <v>-1.58294944266581e-13</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-10.5321304560436</v>
+        <v>-10.53213465556191</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-3.636043161460577e-17</v>
+        <v>-3.119970347510272e-14</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.0001383543133393061</v>
+        <v>-0.0001383543122290831</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-3.183309975340887e-05</v>
+        <v>-3.183313593280168e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.08964985658511813</v>
+        <v>0.08964986524589011</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.22174064668748</v>
+        <v>0.2217406558473109</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-9.254728702718008e-05</v>
+        <v>-9.254732585931308e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.04708432312542851</v>
+        <v>-0.04708434991402697</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/results/nausicaa_results.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.153149525267364</v>
+        <v>5.210326836045978</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.0000000023666</v>
+        <v>4.106868953675822</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.99999959370513</v>
+        <v>63.8819981799782</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.262260630994263</v>
+        <v>1.35677920674344</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.366201547169455</v>
+        <v>2.271584767054895</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08119501541474206</v>
+        <v>0.2349959708703826</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.789208926400274</v>
+        <v>13.95314124366148</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.387313746705807</v>
+        <v>0.9002255056896056</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.386477061009285</v>
+        <v>0.9068768538645399</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0008366856965216218</v>
+        <v>0.006651348174934291</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04000007475393155</v>
+        <v>0.09106548413833929</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4000000353888141</v>
+        <v>0.4157981423550783</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0199999926655473</v>
+        <v>0.02925434193076306</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49656.65013336878</v>
+        <v>45768.00322883359</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09342439026005291</v>
+        <v>-0.7962081275249386</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6968318429726539</v>
+        <v>1.272774854829956</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7948883238098</v>
+        <v>4.28599968156434</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.03539828202274</v>
+        <v>3.171861973472509</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1407574956027135</v>
+        <v>0.1283109899121771</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1118864897433062</v>
+        <v>0.5499408619047962</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6968318429726539</v>
+        <v>1.272774854829956</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1901606294779517</v>
+        <v>0.3036584685651698</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04754015736948792</v>
+        <v>0.07591461714129245</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009040266250862706</v>
+        <v>0.02305211638283606</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6968318429726539</v>
+        <v>1.272774854829956</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07145091670240844</v>
+        <v>0.3291686249539809</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03572545835120422</v>
+        <v>0.1645843124769904</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002552616748807255</v>
+        <v>0.05417599182704726</v>
       </c>
     </row>
     <row r="33">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-8.350203523124514e-15</v>
+        <v>-4.045997172966031e-16</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-9.848384207410734e-15</v>
+        <v>-3.306163351522417e-14</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-3.026541962318201</v>
+        <v>0.001229176673333189</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.058550505592157</v>
+        <v>1.056428220328309</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.65047637187003</v>
+        <v>60.52887838332872</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.071714576406072</v>
+        <v>1.055397025125994</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-31.62631796216882</v>
+        <v>-32.28768987698245</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01065729830535309</v>
+        <v>1.510875294266446e-11</v>
       </c>
     </row>
     <row r="44">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.000429547638715e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0105649986999016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.159956249672909e-05</v>
+        <v>1.510875294266446e-11</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.971452785922185e-12</v>
+        <v>6.366404315775473e-11</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0267508736520472</v>
+        <v>0.03132118918625627</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1.488107865180076e-18</v>
+        <v>-1.594607311557835e-17</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003113164800574826</v>
+        <v>0.05166237627385222</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.00183568148991003</v>
+        <v>0.238880615335939</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001454769286758737</v>
+        <v>0.05375923065809298</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0032867990891481</v>
+        <v>0.2911879055335431</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.353689553173407e-21</v>
+        <v>-3.766543489042926e-21</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-6.2297072224905e-06</v>
+        <v>-0.003329638992196813</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.2815618898642e-21</v>
+        <v>1.461716366217535e-19</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03232607677269975</v>
+        <v>0.1448383823332065</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.000777269098820298</v>
+        <v>0.003164942144377774</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0001649274672767937</v>
+        <v>0.01612593386515407</v>
       </c>
     </row>
     <row r="62">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.007112306099094361</v>
+        <v>0.01862084684119406</v>
       </c>
     </row>
     <row r="67">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-9.609426332622078e-09</v>
+        <v>3.875673308855906e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.006014445586277189</v>
+        <v>0.01740710895336168</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.03518937390067838</v>
+        <v>-0.03207774747804426</v>
       </c>
     </row>
     <row r="71">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.03518937390067838</v>
+        <v>-0.03207774747804426</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.397193404367839</v>
+        <v>2.139716888864142</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01411599656328559</v>
+        <v>0.1185746731050294</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.649291685603166</v>
+        <v>1.196860237688664</v>
       </c>
     </row>
     <row r="77">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.649291685603166</v>
+        <v>1.196860237688664</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.09508031473897584</v>
+        <v>0.1518292342825849</v>
       </c>
     </row>
     <row r="81">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.6611063846214497</v>
+        <v>1.108190542352966</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6611063846214497</v>
+        <v>1.108190542352966</v>
       </c>
     </row>
     <row r="86">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07145091670240844</v>
+        <v>0.3291686249539809</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1161011467611064</v>
+        <v>-0.0007369563660958242</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.415188180862725e-17</v>
+        <v>6.05256449787283e-16</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.893337490654271</v>
+        <v>5.571860697434591</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-3.821464854012173e-16</v>
+        <v>-6.223703739549037e-17</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.904675092714389e-11</v>
+        <v>7.176195884273442e-10</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-6.002786140652568e-17</v>
+        <v>6.046997146245738e-16</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1161011467611064</v>
+        <v>0.0007369563660958242</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.2144372955744961</v>
+        <v>-0.3983050109420319</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3.821464854012173e-16</v>
+        <v>6.223703739549037e-17</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3.867645503516725e-16</v>
+        <v>1.877043210696723e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.884734192416254</v>
+        <v>5.557606075728959</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6.415188180862725e-17</v>
+        <v>6.05256449787283e-16</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2144372955744961</v>
+        <v>0.3983050109420319</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.821464854012173e-16</v>
+        <v>6.223703739549037e-17</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.904675092714389e-11</v>
+        <v>7.176195884273442e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.002786140652568e-17</v>
+        <v>-6.046997146245738e-16</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.035669480373438</v>
+        <v>0.6077654995871973</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.525173277221761e-17</v>
+        <v>6.618928790038293e-17</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1178342088629518</v>
+        <v>0.04355761107654907</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.641768886918701e-16</v>
+        <v>1.587980113542457e-18</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.914739871437279e-10</v>
+        <v>6.116158223273728e-10</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.149710717489231e-17</v>
+        <v>-1.542893366512013e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.820765797462427</v>
+        <v>5.479840509429206</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.06728617070302481</v>
+        <v>0.323961536191663</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.683753385137379e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.816391647148976e-16</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.04024134293396982</v>
+        <v>0.09126579909611049</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7.112366251504909e-17</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.7943869669449269</v>
+        <v>4.27943880702091</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.8006279918397183</v>
+        <v>0.6621475790241521</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.06228093452468567</v>
+        <v>0.07684489244127322</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.007013516317176</v>
+        <v>0.009779472354313834</v>
       </c>
     </row>
     <row r="120">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-5.421010862427522e-20</v>
+        <v>-1.382357769919018e-18</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.0396493032369044</v>
+        <v>-0.09140827753479036</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0</v>
+        <v>7.115076756936123e-20</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1901606294779517</v>
+        <v>0.3036584685651698</v>
       </c>
     </row>
     <row r="125">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-2.710505431213761e-20</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.001214686381204971</v>
+        <v>0.0135150811132985</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1.731434795725346e-17</v>
+        <v>6.05256449787283e-16</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5.643467968323278e-19</v>
+        <v>6.363665285524811e-17</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-9.620023459473031e-05</v>
+        <v>0.0004501367408964241</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-1.109731046703648e-17</v>
+        <v>-6.048062235074575e-16</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.07145091670240844</v>
+        <v>0.3291686249539809</v>
       </c>
     </row>
     <row r="133">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.001687460429141284</v>
+        <v>0.0009206738584802246</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.001327472025569427</v>
+        <v>0.002289169690781615</v>
       </c>
     </row>
     <row r="136">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-2.816001888311887e-21</v>
+        <v>-1.725768983872683e-20</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.0004958394134239406</v>
+        <v>-0.0003076575845969641</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1.509358513064274e-21</v>
+        <v>3.535811531435405e-20</v>
       </c>
     </row>
     <row r="140">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.07684184542697522</v>
+        <v>0.3495452593500569</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1375954501475208</v>
+        <v>0.04875975159197503</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.064860030510662</v>
+        <v>6.879150848173862</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6767864455493355</v>
+        <v>0.311580471133689</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1.4746458108678e-12</v>
+        <v>-1.059274657506354e-21</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-1.511397943680217e-11</v>
+        <v>1.568159907414711e-16</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.162594705084695</v>
+        <v>-0.6264532024496201</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-2.81709631988402e-12</v>
+        <v>2.356526807207588e-18</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.03238118399833192</v>
+        <v>0.04300589160287824</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-5.506125375674737e-06</v>
+        <v>-4.01549481311323e-06</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-6.063441250288863e-07</v>
+        <v>5.331388882029812e-07</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1356588869903509</v>
+        <v>-0.1247735064688257</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.02500007760707386</v>
+        <v>-0.09436430209381001</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>7.541842719580456e-07</v>
+        <v>4.717204621872959e-07</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.02026731492435541</v>
+        <v>0.02515180150071441</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.09200472242985269</v>
+        <v>0.8952915645781278</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.007946217166265869</v>
+        <v>-0.002097453548732808</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.00172887961528978</v>
+        <v>-0.002531269012819026</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.07824093433272834</v>
+        <v>-0.1958710976282254</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.6483472533641985</v>
+        <v>-1.117638415059647</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.000311782902418352</v>
+        <v>0.0003366171735603111</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.273078453147326</v>
+        <v>-0.1472961503653625</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.3851218934731725</v>
+        <v>1.207210182020857</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.5315074849041035</v>
+        <v>0.08159611729089548</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1.499129589323552e-14</v>
+        <v>-4.867160655724147e-17</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1.58294944266581e-13</v>
+        <v>-2.881591893142269e-15</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-10.53213465556191</v>
+        <v>-41.78336518027699</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-3.119970347510272e-14</v>
+        <v>7.299010529158055e-18</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.0001383543122290831</v>
+        <v>2.461263404196501e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-3.183313593280168e-05</v>
+        <v>-1.836153689510622e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.08964986524589011</v>
+        <v>0.09627448682060243</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.2217406558473109</v>
+        <v>0.1202862992846506</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-9.254732585931308e-05</v>
+        <v>-9.735078960994101e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.04708434991402697</v>
+        <v>-0.02765187892277923</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/results/nausicaa_results.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.210326836045978</v>
+        <v>5.141061488811325</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.106868953675822</v>
+        <v>10.00000009984927</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.8819981799782</v>
+        <v>65.00000064741765</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.35677920674344</v>
+        <v>1.256345602990154</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.271584767054895</v>
+        <v>2.366201640490309</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2349959708703826</v>
+        <v>0.08277678496321403</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.95314124366148</v>
+        <v>8.087660995770321</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9002255056896056</v>
+        <v>1.504116959381735</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9068768538645399</v>
+        <v>1.41925860399273</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006651348174934291</v>
+        <v>-0.08485835538900477</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09106548413833929</v>
+        <v>0.03999999052013917</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4157981423550783</v>
+        <v>0.3999999900529829</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02925434193076306</v>
+        <v>0.01999999000524018</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45768.00322883359</v>
+        <v>49463.23004659176</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.7962081275249386</v>
+        <v>-0.1015359301217917</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.272774854829956</v>
+        <v>0.8056713410028052</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.28599968156434</v>
+        <v>0.8114614932330131</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.171861973472509</v>
+        <v>2.053750223110356</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1283109899121771</v>
+        <v>0.1405388941750224</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5499408619047962</v>
+        <v>0.1140419009245801</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.272774854829956</v>
+        <v>0.8056713410028052</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3036584685651698</v>
+        <v>0.1784068470692191</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07591461714129245</v>
+        <v>0.04460171176730478</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02305211638283606</v>
+        <v>0.007957250770294935</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.272774854829956</v>
+        <v>0.8056713410028052</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3291686249539809</v>
+        <v>0.0677824264146713</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1645843124769904</v>
+        <v>0.03389121320733565</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05417599182704726</v>
+        <v>0.002297228665330165</v>
       </c>
     </row>
     <row r="33">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-4.045997172966031e-16</v>
+        <v>-1.32197450498956e-15</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-3.306163351522417e-14</v>
+        <v>1.608227095629997e-14</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001229176673333189</v>
+        <v>10.00580694562281</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.056428220328309</v>
+        <v>1.055098752613763</v>
       </c>
     </row>
     <row r="40">
@@ -832,67 +832,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.52887838332872</v>
+        <v>60.45270549428633</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t_roll (s)</t>
+          <t>p_roll_max (rad/s)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.055397025125994</v>
+        <v>13.61794718233036</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>psi_0 (deg)</t>
+          <t>t_roll (s)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-32.28768987698245</v>
+        <v>1.075220705441564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>objective_total</t>
+          <t>psi_0 (deg)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.510875294266446e-11</v>
+        <v>-31.60949773307858</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>objective_sink</t>
+          <t>Cl_da (rad^-1)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-0.4866281482559692</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>objective_climb</t>
+          <t>objective_total</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1.065901365071977</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>objective_mass</t>
+          <t>objective_climb</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.007249436628742574</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.057650766716904</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.510875294266446e-11</v>
+        <v>0.001001161726330736</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6.366404315775473e-11</v>
+        <v>3.333585406817299e-10</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03132118918625627</v>
+        <v>0.03284266895196183</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1.594607311557835e-17</v>
+        <v>-1.27227663362964e-17</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.05166237627385222</v>
+        <v>0.003182731310932615</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.238880615335939</v>
+        <v>0.001945924981276573</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.05375923065809298</v>
+        <v>0.001961788971508408</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2911879055335431</v>
+        <v>0.003903935294542807</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-3.766543489042926e-21</v>
+        <v>1.387152435409648e-21</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.003329638992196813</v>
+        <v>-4.48775121766283e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.461716366217535e-19</v>
+        <v>3.399195133571679e-21</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1448383823332065</v>
+        <v>0.03289764424912821</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.003164942144377774</v>
+        <v>0.0006418656542902716</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01612593386515407</v>
+        <v>0.0001408059179774253</v>
       </c>
     </row>
     <row r="62">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01862084684119406</v>
+        <v>0.008164865440121372</v>
       </c>
     </row>
     <row r="67">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.875673308855906e-05</v>
+        <v>-9.99928206569716e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01740710895336168</v>
+        <v>0.006131613700978818</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.03207774747804426</v>
+        <v>-0.0351347235437556</v>
       </c>
     </row>
     <row r="71">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.03207774747804426</v>
+        <v>-0.0351347235437556</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.139716888864142</v>
+        <v>0.4054701244165568</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1185746731050294</v>
+        <v>0.01454018416698145</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.196860237688664</v>
+        <v>0.7610696292355005</v>
       </c>
     </row>
     <row r="77">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.196860237688664</v>
+        <v>0.7610696292355005</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1518292342825849</v>
+        <v>0.08920342353460955</v>
       </c>
     </row>
     <row r="81">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.108190542352966</v>
+        <v>0.7717801277954696</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.108190542352966</v>
+        <v>0.7717801277954696</v>
       </c>
     </row>
     <row r="86">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3291686249539809</v>
+        <v>0.0677824264146713</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.0007369563660958242</v>
+        <v>-0.09968772864393802</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.05256449787283e-16</v>
+        <v>-1.642741440261673e-18</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5.571860697434591</v>
+        <v>1.933514829369654</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-6.223703739549037e-17</v>
+        <v>-8.192865265399014e-17</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7.176195884273442e-10</v>
+        <v>2.283188828972049e-14</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>6.046997146245738e-16</v>
+        <v>-2.781845244806068e-17</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0007369563660958242</v>
+        <v>0.09968772864393802</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.3983050109420319</v>
+        <v>-0.2375780819118086</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6.223703739549037e-17</v>
+        <v>8.192865265399014e-17</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.877043210696723e-17</v>
+        <v>8.551459592356331e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5.557606075728959</v>
+        <v>1.92145098652806</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6.05256449787283e-16</v>
+        <v>-1.642741440261673e-18</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3983050109420319</v>
+        <v>0.2375780819118086</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6.223703739549037e-17</v>
+        <v>8.192865265399014e-17</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>7.176195884273442e-10</v>
+        <v>2.283188828972049e-14</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-6.046997146245738e-16</v>
+        <v>2.781845244806068e-17</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.6077654995871973</v>
+        <v>1.040766902446284</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6.618928790038293e-17</v>
+        <v>-8.898019945804752e-19</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.04355761107654907</v>
+        <v>0.1286857724366271</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.587980113542457e-18</v>
+        <v>5.468800225985341e-17</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6.116158223273728e-10</v>
+        <v>8.799732308183184e-14</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1.542893366512013e-17</v>
+        <v>1.85690297724074e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5.479840509429206</v>
+        <v>1.854331488203392</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.323961536191663</v>
+        <v>0.06870129053957613</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1.214306433183765e-17</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0</v>
+        <v>8.326672684688674e-17</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.09126579909611049</v>
+        <v>0.05210876439358686</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0</v>
+        <v>1.734723475976807e-17</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.27943880702091</v>
+        <v>0.8109404162444613</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.6621475790241521</v>
+        <v>0.7998638959219753</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.07684489244127322</v>
+        <v>0.06518784432553081</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.009779472354313834</v>
+        <v>0.02827084386385509</v>
       </c>
     </row>
     <row r="120">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1.382357769919018e-18</v>
+        <v>-8.944667923005412e-19</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.09140827753479036</v>
+        <v>-0.0513365394690181</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>7.115076756936123e-20</v>
+        <v>2.236166980751353e-19</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3036584685651698</v>
+        <v>0.1784068470692191</v>
       </c>
     </row>
     <row r="125">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0</v>
+        <v>2.710505431213761e-20</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0135150811132985</v>
+        <v>0.001118499803066326</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>6.05256449787283e-16</v>
+        <v>-1.378580577209932e-17</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>6.363665285524811e-17</v>
+        <v>-4.161356364208345e-19</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0004501367408964241</v>
+        <v>-0.0001109254283730531</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-6.048062235074575e-16</v>
+        <v>1.023332831614988e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3291686249539809</v>
+        <v>0.0677824264146713</v>
       </c>
     </row>
     <row r="133">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0009206738584802246</v>
+        <v>0.001931653999137287</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.002289169690781615</v>
+        <v>0.001479730226077065</v>
       </c>
     </row>
     <row r="136">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1.725768983872683e-20</v>
+        <v>-2.747176417521673e-20</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.0003076575845969641</v>
+        <v>-0.0006612994961728788</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3.535811531435405e-20</v>
+        <v>1.427267406759412e-20</v>
       </c>
     </row>
     <row r="140">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.3495452593500569</v>
+        <v>0.09957036443257461</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.04875975159197503</v>
+        <v>0.138007717479234</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>6.879150848173862</v>
+        <v>4.021942757649293</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.311580471133689</v>
+        <v>0.7196226212826305</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1.059274657506354e-21</v>
+        <v>2.785088802896838e-22</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.568159907414711e-16</v>
+        <v>5.286877008665689e-13</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.6264532024496201</v>
+        <v>-0.1608776721785141</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.356526807207588e-18</v>
+        <v>-2.325967398586828e-13</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.04300589160287824</v>
+        <v>0.03846422338667357</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-4.01549481311323e-06</v>
+        <v>-5.438646727552807e-06</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>5.331388882029812e-07</v>
+        <v>-6.658968308846092e-07</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.1247735064688257</v>
+        <v>0.1396629135701793</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.09436430209381001</v>
+        <v>-0.02499999015796307</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4.717204621872959e-07</v>
+        <v>6.799741356075048e-07</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.02515180150071441</v>
+        <v>0.03217912956944434</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.8952915645781278</v>
+        <v>-0.1541226739859743</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.002097453548732808</v>
+        <v>-0.00824421885603499</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.002531269012819026</v>
+        <v>-0.001687347274764717</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.1958710976282254</v>
+        <v>-0.07811761689330377</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1.117638415059647</v>
+        <v>-0.6462573293282363</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0003366171735603111</v>
+        <v>-0.001214576490396257</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.1472961503653625</v>
+        <v>-0.2729271052282198</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1.207210182020857</v>
+        <v>0.7477096696717478</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.08159611729089548</v>
+        <v>1.261830316577978</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-4.867160655724147e-17</v>
+        <v>-5.659664324254516e-15</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-2.881591893142269e-15</v>
+        <v>-5.102221748878642e-14</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-41.78336518027699</v>
+        <v>-16.67366635714174</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>7.299010529158055e-18</v>
+        <v>-1.155931116872107e-14</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2.461263404196501e-05</v>
+        <v>-0.0001276918786263792</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-1.836153689510622e-05</v>
+        <v>-3.21477403031345e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.09627448682060243</v>
+        <v>0.1128903331499223</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.1202862992846506</v>
+        <v>0.2225041885750886</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-9.735078960994101e-06</v>
+        <v>-0.0002291904827817157</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.02765187892277923</v>
+        <v>-0.07231340751734523</v>
       </c>
     </row>
   </sheetData>

--- a/01_Initial_Glider_Design/results/nausicaa_results.xlsx
+++ b/01_Initial_Glider_Design/results/nausicaa_results.xlsx
@@ -448,61 +448,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V_operate (m/s)</t>
+          <t>V (m/s)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.141061488811325</v>
+        <v>3.644899834009038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alpha (deg)</t>
+          <t>α (deg)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.00000009984927</v>
+        <v>10.00000009989558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>phi (deg)</t>
+          <t>ϕ (deg)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.00000064741765</v>
+        <v>28.44458975481632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>r_target (m)</t>
+          <t>R_target (m)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.256345602990154</v>
+        <v>2.500000024968069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>n_load</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.366201640490309</v>
+        <v>1.137296532699635</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TOGW (kg)</t>
+          <t>m_TOGW (kg)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08277678496321403</v>
+        <v>0.1242714156471057</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.087660995770321</v>
+        <v>8.050106014587168</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.504116959381735</v>
+        <v>0.5149412822469547</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.41925860399273</v>
+        <v>2.627102813010806e-06</v>
       </c>
     </row>
     <row r="11">
@@ -542,47 +542,47 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.08485835538900477</v>
+        <v>-0.5149386551441417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>static_margin</t>
+          <t>K_n</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03999999052013917</v>
+        <v>0.03999999010923621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V_ht</t>
+          <t>V_HT</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3999999900529829</v>
+        <v>0.3999999900541711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V_vt</t>
+          <t>V_VT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01999999000524018</v>
+        <v>0.02502499093765765</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Re_w</t>
+          <t>Re_W</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49463.23004659176</v>
+        <v>47093.29680884414</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1015359301217917</v>
+        <v>-0.1962228686473151</v>
       </c>
     </row>
     <row r="17">
@@ -602,43 +602,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8056713410028052</v>
+        <v>0.9796727517849715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>b_w (m)</t>
+          <t>b_W (m)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8114614932330131</v>
+        <v>0.928991939360712</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dihedral_w (deg)</t>
+          <t>Γ_W (deg)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.053750223110356</v>
+        <v>1.981837687961971</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>c_root_w (m)</t>
+          <t>c_root_W (m)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1405388941750224</v>
+        <v>0.1887297452657162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>taper_w</t>
+          <t>λ_W</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,47 +648,47 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S_w (m^2)</t>
+          <t>S_W (m^2)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1140419009245801</v>
+        <v>0.1753284120694508</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>l_ht (m)</t>
+          <t>l_HT (m)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8056713410028052</v>
+        <v>0.9796727517849715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>b_ht (m)</t>
+          <t>b_HT (m)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1784068470692191</v>
+        <v>0.2324694017947809</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>c_root_ht (m)</t>
+          <t>c_root_HT (m)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04460171176730478</v>
+        <v>0.05811735044869522</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>taper_ht</t>
+          <t>λ_HT</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,47 +698,47 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S_ht (m^2)</t>
+          <t>S_HT (m^2)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007957250770294935</v>
+        <v>0.01351050569270582</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>l_vt (m)</t>
+          <t>l_VT (m)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8056713410028052</v>
+        <v>0.9796727517849715</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b_vt (m)</t>
+          <t>b_VT (m)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0677824264146713</v>
+        <v>0.09122073567570736</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>c_root_vt (m)</t>
+          <t>c_root_VT (m)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03389121320733565</v>
+        <v>0.04561036783785368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>taper_vt</t>
+          <t>λ_VT</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,17 +748,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S_vt (m^2)</t>
+          <t>S_VT (m^2)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002297228665330165</v>
+        <v>0.004160611308608635</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hinge_point_a</t>
+          <t>hinge_point_A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hinge_point_r</t>
+          <t>hinge_point_R</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hinge_point_e</t>
+          <t>hinge_point_E</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,61 +788,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>delta_a (deg)</t>
+          <t>δ_A (deg)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.32197450498956e-15</v>
+        <v>6.710340013809524e-16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>delta_r (deg)</t>
+          <t>δ_R (deg)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.608227095629997e-14</v>
+        <v>-1.727541447552201e-14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>delta_e (deg)</t>
+          <t>δ_E (deg)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10.00580694562281</v>
+        <v>-3.554902249553045</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>p_roll (rad/s)</t>
+          <t>p (rad/s)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.055098752613763</v>
+        <v>0.3427038281061742</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>p_roll (deg/s)</t>
+          <t>p (deg/s)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.45270549428633</v>
+        <v>19.63548297346062</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>p_roll_max (rad/s)</t>
+          <t>p_max (rad/s)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.61794718233036</v>
+        <v>0.3427038139007461</v>
       </c>
     </row>
     <row r="42">
@@ -852,27 +852,27 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.075220705441564</v>
+        <v>1.448632039928028</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>psi_0 (deg)</t>
+          <t>ψ0 (deg)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-31.60949773307858</v>
+        <v>-46.44624463082796</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cl_da (rad^-1)</t>
+          <t>Cl,δA (rad^-1)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.4866281482559692</v>
+        <v>0.5466829777533183</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.065901365071977</v>
+        <v>1.517970268693032</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.007249436628742574</v>
+        <v>0.2651618185617929</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.057650766716904</v>
+        <v>1.2526820768312</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001001161726330736</v>
+        <v>0.000126373300038773</v>
       </c>
     </row>
     <row r="49">
@@ -922,37 +922,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.333585406817299e-10</v>
+        <v>4.096960747716587e-10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_cg (m)</t>
+          <t>x_CG (m)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03284266895196183</v>
+        <v>0.0329210990700769</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>y_cg (m)</t>
+          <t>y_CG (m)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1.27227663362964e-17</v>
+        <v>1.104190667988037e-20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>z_cg (m)</t>
+          <t>z_CG (m)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003182731310932615</v>
+        <v>0.004876928880263301</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.001945924981276573</v>
+        <v>0.005267191512191249</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001961788971508408</v>
+        <v>0.004833027064968951</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003903935294542807</v>
+        <v>0.01009151005748862</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.387152435409648e-21</v>
+        <v>-1.259252223585394e-21</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-4.48775121766283e-06</v>
+        <v>-2.402228857442667e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3.399195133571679e-21</v>
+        <v>-7.316052750221354e-21</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03289764424912821</v>
+        <v>0.06791981171374438</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0006418656542902716</v>
+        <v>0.001420060924970608</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0001408059179774253</v>
+        <v>0.0003432023759293488</v>
       </c>
     </row>
     <row r="62">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.008164865440121372</v>
+        <v>0.01058306058389058</v>
       </c>
     </row>
     <row r="67">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-9.99928206569716e-09</v>
+        <v>-9.999363005495038e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.006131613700978818</v>
+        <v>0.009205290047933754</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.0351347235437556</v>
+        <v>-0.04718243631642904</v>
       </c>
     </row>
     <row r="71">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.0351347235437556</v>
+        <v>-0.04718243631642904</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.4054701244165568</v>
+        <v>0.4642181266196229</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01454018416698145</v>
+        <v>0.01606352287208274</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.7610696292355005</v>
+        <v>0.9215554013362762</v>
       </c>
     </row>
     <row r="77">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.7610696292355005</v>
+        <v>0.9215554013362762</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08920342353460955</v>
+        <v>0.1162347008973904</v>
       </c>
     </row>
     <row r="81">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.7717801277954696</v>
+        <v>0.9340623839471178</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.7717801277954696</v>
+        <v>0.9340623839471178</v>
       </c>
     </row>
     <row r="86">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0677824264146713</v>
+        <v>0.09122073567570736</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.09968772864393802</v>
+        <v>-0.07114509394009054</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1.642741440261673e-18</v>
+        <v>4.706115313836088e-18</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.933514829369654</v>
+        <v>1.395325042839385</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-8.192865265399014e-17</v>
+        <v>-1.680046920630976e-19</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.283188828972049e-14</v>
+        <v>5.035034889022683e-16</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-2.781845244806068e-17</v>
+        <v>4.14655695831387e-18</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.09968772864393802</v>
+        <v>0.07114509394009054</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.2375780819118086</v>
+        <v>-0.172231413258447</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8.192865265399014e-17</v>
+        <v>1.680046920630976e-19</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>8.551459592356331e-17</v>
+        <v>-5.545897432877477e-19</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.92145098652806</v>
+        <v>1.38648113577267</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1.642741440261673e-18</v>
+        <v>4.706115313836088e-18</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2375780819118086</v>
+        <v>0.172231413258447</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8.192865265399014e-17</v>
+        <v>1.680046920630976e-19</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.283188828972049e-14</v>
+        <v>5.035034889022683e-16</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.781845244806068e-17</v>
+        <v>-4.14655695831387e-18</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.040766902446284</v>
+        <v>0.9718174118279695</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-8.898019945804752e-19</v>
+        <v>3.298627500984649e-18</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1286857724366271</v>
+        <v>0.1207210700165926</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5.468800225985341e-17</v>
+        <v>1.267594003772624e-19</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8.799732308183184e-14</v>
+        <v>1.869962259349614e-15</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.85690297724074e-17</v>
+        <v>-3.128573775002818e-18</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.854331488203392</v>
+        <v>1.346438140985401</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.06870129053957613</v>
+        <v>0.05666571842157855</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1.214306433183765e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>8.326672684688674e-17</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.05210876439358686</v>
+        <v>0.03582242019671879</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1.734723475976807e-17</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.8109404162444613</v>
+        <v>0.9284364194339416</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.7998638959219753</v>
+        <v>0.8050287522364076</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.06518784432553081</v>
+        <v>0.0387240629922363</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.02827084386385509</v>
+        <v>0.005173442903711349</v>
       </c>
     </row>
     <row r="120">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-8.944667923005412e-19</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.0513365394690181</v>
+        <v>-0.03518905129071747</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2.236166980751353e-19</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1784068470692191</v>
+        <v>0.2324694017947809</v>
       </c>
     </row>
     <row r="125">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2.710505431213761e-20</v>
+        <v>-2.710505431213761e-20</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.001118499803066326</v>
+        <v>0.001042440982192285</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-1.378580577209932e-17</v>
+        <v>4.706115313836088e-18</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-4.161356364208345e-19</v>
+        <v>1.679884597425083e-19</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.0001109254283730531</v>
+        <v>-0.0001228491483451037</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.023332831614988e-17</v>
+        <v>-4.146548768228791e-18</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0677824264146713</v>
+        <v>0.09122073567570736</v>
       </c>
     </row>
     <row r="133">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.001931653999137287</v>
+        <v>0.001318931795032356</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.001479730226077065</v>
+        <v>0.0009857330363265495</v>
       </c>
     </row>
     <row r="136">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-2.747176417521673e-20</v>
+        <v>1.623232058928797e-23</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.0006612994961728788</v>
+        <v>-0.0005105197576557106</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1.427267406759412e-20</v>
+        <v>-8.190085078733181e-24</v>
       </c>
     </row>
     <row r="140">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.09957036443257461</v>
+        <v>0.06386733534380874</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.138007717479234</v>
+        <v>0.1083640779146382</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.021942757649293</v>
+        <v>4.330206618580417</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.7196226212826305</v>
+        <v>0.7370766781297228</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.785088802896838e-22</v>
+        <v>-6.183620096143539e-23</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5.286877008665689e-13</v>
+        <v>-1.013253764887032e-19</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.1608776721785141</v>
+        <v>-0.1732082219141658</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-2.325967398586828e-13</v>
+        <v>-1.78280719208029e-20</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.03846422338667357</v>
+        <v>0.04047028701402422</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-5.438646727552807e-06</v>
+        <v>-6.421145513094339e-06</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-6.658968308846092e-07</v>
+        <v>-8.017152623084754e-07</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1396629135701793</v>
+        <v>0.1220714095673499</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.02499999015796307</v>
+        <v>-0.02499998999822878</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6.799741356075048e-07</v>
+        <v>7.710659752435327e-07</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.03217912956944434</v>
+        <v>0.02999999000975078</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.1541226739859743</v>
+        <v>-0.1953858320838877</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.00824421885603499</v>
+        <v>-0.005184850024320119</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.001687347274764717</v>
+        <v>-0.001906991248953882</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.07811761689330377</v>
+        <v>-0.08163987517334696</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.6462573293282363</v>
+        <v>-0.6932962982918888</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.001214576490396257</v>
+        <v>-5.512784465234025e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.2729271052282198</v>
+        <v>-0.273885350289613</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.7477096696717478</v>
+        <v>0.4765380576259303</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1.261830316577978</v>
+        <v>0.5514321660546606</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-5.659664324254516e-15</v>
+        <v>8.545768344539727e-18</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-5.102221748878642e-14</v>
+        <v>-6.917825342059854e-19</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-16.67366635714174</v>
+        <v>-11.47176194348581</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-1.155931116872107e-14</v>
+        <v>-8.281213837577732e-18</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.0001276918786263792</v>
+        <v>-9.174517756616039e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-3.21477403031345e-05</v>
+        <v>-8.648148643042307e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.1128903331499223</v>
+        <v>0.1046406108205744</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.2225041885750886</v>
+        <v>0.195821087584594</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.0002291904827817157</v>
+        <v>-3.259261629536437e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.07231340751734523</v>
+        <v>-0.07959137623022727</v>
       </c>
     </row>
   </sheetData>
